--- a/data/tickets_simple_10.xlsx
+++ b/data/tickets_simple_10.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteoise/Documents/Academic/Projects/Projektarbeit 2/Data/simple/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteoise/Documents/Development/Projects/few-shot-classification-experiment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A0056-EB59-1A4A-806D-39E662B0A1FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8850B63E-D9D6-8749-89C5-522F7236F7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{37832037-8207-C04A-9214-B0842A5D6D68}"/>
+    <workbookView xWindow="-20" yWindow="780" windowWidth="30240" windowHeight="18880" xr2:uid="{37832037-8207-C04A-9214-B0842A5D6D68}"/>
   </bookViews>
   <sheets>
     <sheet name="aa_dataset-tickets-multi-lang-5" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'aa_dataset-tickets-multi-lang-5'!$A$1:$P$11</definedName>
+    <definedName name="ExternalData_1" localSheetId="0" hidden="1">'aa_dataset-tickets-multi-lang-5'!$A$1:$I$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>subject</t>
   </si>
@@ -73,30 +73,6 @@
     <t>version</t>
   </si>
   <si>
-    <t>tag_1</t>
-  </si>
-  <si>
-    <t>tag_2</t>
-  </si>
-  <si>
-    <t>tag_3</t>
-  </si>
-  <si>
-    <t>tag_4</t>
-  </si>
-  <si>
-    <t>tag_5</t>
-  </si>
-  <si>
-    <t>tag_6</t>
-  </si>
-  <si>
-    <t>tag_7</t>
-  </si>
-  <si>
-    <t>tag_8</t>
-  </si>
-  <si>
     <t>Wesentlicher Sicherheitsvorfall</t>
   </si>
   <si>
@@ -127,12 +103,6 @@
     <t>Disruption</t>
   </si>
   <si>
-    <t>Data Breach</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Account Disruption</t>
   </si>
   <si>
@@ -148,12 +118,6 @@
     <t>Account</t>
   </si>
   <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Tech Support</t>
-  </si>
-  <si>
     <t>Query About Smart Home System Integration Features</t>
   </si>
   <si>
@@ -175,9 +139,6 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Feature</t>
-  </si>
-  <si>
     <t>Inquiry Regarding Invoice Details</t>
   </si>
   <si>
@@ -196,15 +157,9 @@
     <t>Billing</t>
   </si>
   <si>
-    <t>Payment</t>
-  </si>
-  <si>
     <t>Documentation</t>
   </si>
   <si>
-    <t>Feedback</t>
-  </si>
-  <si>
     <t>Question About Marketing Agency Software Compatibility</t>
   </si>
   <si>
@@ -232,9 +187,6 @@
     <t>Service Outages and Maintenance</t>
   </si>
   <si>
-    <t>Performance</t>
-  </si>
-  <si>
     <t>Connectivity Problems with Printer on MacBook Pro</t>
   </si>
   <si>
@@ -247,15 +199,6 @@
     <t>Network</t>
   </si>
   <si>
-    <t>Hardware</t>
-  </si>
-  <si>
-    <t>Bug</t>
-  </si>
-  <si>
-    <t>Compatibility</t>
-  </si>
-  <si>
     <t>Anfrage nach detaillierten Angaben zur Systemarchitektur der Plattform</t>
   </si>
   <si>
@@ -274,12 +217,6 @@
     <t>Vielen Dank, dass Sie uns bezüglich des kürzlichen Serviceausfalls kontaktiert haben. Der Ausfall begann um 9:00 Uhr morgens und wurde um 13:30 Uhr behoben, wodurch die Hauptdatenzugangs- und Messaging-Dienste betroffen waren. Wir bestätigen, dass im betreffenden Zeitraum keine Kundendaten kompromittiert oder verloren wurden. Unser technisches Team hat die Ursache, eine vorübergehende Systemüberlastung, bereits identifiziert und zusätzliche Schutzmaßnahmen sowie Überwachungsprozesse implementiert, um zukünftige Vorfälle zu verhindern. Für spezifische Informationen über das betroffene Konto bitten wir um weitere Details.</t>
   </si>
   <si>
-    <t>Recovery</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
     <t>VPN Access Issue</t>
   </si>
   <si>
@@ -292,7 +229,7 @@
     <t>Product Support</t>
   </si>
   <si>
-    <t>VPN</t>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -334,28 +271,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -396,7 +312,7 @@
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{6579BDD6-66F8-EF47-B054-E57CD8901D9F}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="17">
-    <queryTableFields count="16">
+    <queryTableFields count="9">
       <queryTableField id="1" name="subject" tableColumnId="1"/>
       <queryTableField id="2" name="body" tableColumnId="2"/>
       <queryTableField id="3" name="answer" tableColumnId="3"/>
@@ -406,38 +322,33 @@
       <queryTableField id="7" name="language" tableColumnId="7"/>
       <queryTableField id="8" name="version" tableColumnId="8"/>
       <queryTableField id="9" name="tag_1" tableColumnId="9"/>
-      <queryTableField id="10" name="tag_2" tableColumnId="10"/>
-      <queryTableField id="11" name="tag_3" tableColumnId="11"/>
-      <queryTableField id="12" name="tag_4" tableColumnId="12"/>
-      <queryTableField id="13" name="tag_5" tableColumnId="13"/>
-      <queryTableField id="14" name="tag_6" tableColumnId="14"/>
-      <queryTableField id="15" name="tag_7" tableColumnId="15"/>
-      <queryTableField id="16" name="tag_8" tableColumnId="16"/>
     </queryTableFields>
+    <queryTableDeletedFields count="7">
+      <deletedField name="tag_2"/>
+      <deletedField name="tag_3"/>
+      <deletedField name="tag_4"/>
+      <deletedField name="tag_5"/>
+      <deletedField name="tag_6"/>
+      <deletedField name="tag_7"/>
+      <deletedField name="tag_8"/>
+    </queryTableDeletedFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2899E1B0-78F5-444D-84B5-B50A173CADC4}" name="aa_dataset_tickets_multi_lang_5_2_50_version" displayName="aa_dataset_tickets_multi_lang_5_2_50_version" ref="A1:P11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:P11" xr:uid="{2899E1B0-78F5-444D-84B5-B50A173CADC4}"/>
-  <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{BEBFCD7A-57DE-184E-898E-466FE2F578B5}" uniqueName="1" name="subject" queryTableFieldId="1" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{70815A22-E02C-604B-A711-053D9FD125EA}" uniqueName="2" name="body" queryTableFieldId="2" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{F942AC1B-1A67-C743-9DCF-94CE1566D06A}" uniqueName="3" name="answer" queryTableFieldId="3" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{A639F348-BCDF-7549-81B7-80B21D9F76D5}" uniqueName="4" name="type" queryTableFieldId="4" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{3F7295B4-E85E-0F43-89CC-C7239E15B7D2}" uniqueName="5" name="queue" queryTableFieldId="5" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{365A1DD8-1AC0-CE46-9E9D-E81F7DFEF50E}" uniqueName="6" name="priority" queryTableFieldId="6" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{FCEE61B0-76DB-3B46-86ED-65BBA1728052}" uniqueName="7" name="language" queryTableFieldId="7" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2899E1B0-78F5-444D-84B5-B50A173CADC4}" name="aa_dataset_tickets_multi_lang_5_2_50_version" displayName="aa_dataset_tickets_multi_lang_5_2_50_version" ref="A1:I11" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:I11" xr:uid="{2899E1B0-78F5-444D-84B5-B50A173CADC4}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{BEBFCD7A-57DE-184E-898E-466FE2F578B5}" uniqueName="1" name="subject" queryTableFieldId="1" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{70815A22-E02C-604B-A711-053D9FD125EA}" uniqueName="2" name="body" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{F942AC1B-1A67-C743-9DCF-94CE1566D06A}" uniqueName="3" name="answer" queryTableFieldId="3" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A639F348-BCDF-7549-81B7-80B21D9F76D5}" uniqueName="4" name="type" queryTableFieldId="4" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{3F7295B4-E85E-0F43-89CC-C7239E15B7D2}" uniqueName="5" name="queue" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{365A1DD8-1AC0-CE46-9E9D-E81F7DFEF50E}" uniqueName="6" name="priority" queryTableFieldId="6" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{FCEE61B0-76DB-3B46-86ED-65BBA1728052}" uniqueName="7" name="language" queryTableFieldId="7" dataDxfId="1"/>
     <tableColumn id="8" xr3:uid="{072EC2DE-387A-C84D-BCB1-753070703884}" uniqueName="8" name="version" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{5B5B641A-E607-D147-AF76-5402F0F1C76C}" uniqueName="9" name="tag_1" queryTableFieldId="9" dataDxfId="7"/>
-    <tableColumn id="10" xr3:uid="{869832CE-8240-EE4E-AD6F-B26EAED572C7}" uniqueName="10" name="tag_2" queryTableFieldId="10" dataDxfId="6"/>
-    <tableColumn id="11" xr3:uid="{F0D23B46-43FC-1943-A706-E79594DDD1D9}" uniqueName="11" name="tag_3" queryTableFieldId="11" dataDxfId="5"/>
-    <tableColumn id="12" xr3:uid="{05982A33-7C58-7A40-A2E0-361846BFB356}" uniqueName="12" name="tag_4" queryTableFieldId="12" dataDxfId="4"/>
-    <tableColumn id="13" xr3:uid="{0A29F16D-6113-5846-8EA0-21BE719B2A65}" uniqueName="13" name="tag_5" queryTableFieldId="13" dataDxfId="3"/>
-    <tableColumn id="14" xr3:uid="{45A795DA-B931-C54B-ABAB-1704A1169903}" uniqueName="14" name="tag_6" queryTableFieldId="14" dataDxfId="2"/>
-    <tableColumn id="15" xr3:uid="{C3406D6C-C3DC-E746-B8B0-1656D9C3FAD0}" uniqueName="15" name="tag_7" queryTableFieldId="15" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{F82766F9-0C7B-C949-B313-3E4D1B89A7AA}" uniqueName="16" name="tag_8" queryTableFieldId="16" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{5B5B641A-E607-D147-AF76-5402F0F1C76C}" uniqueName="9" name="label" queryTableFieldId="9" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -760,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A029593-E643-EE40-85A6-7B4FB6AC4E1C}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -786,7 +697,7 @@
     <col min="16" max="16" width="5.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -812,528 +723,297 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
       </c>
       <c r="H2">
         <v>51</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
       </c>
       <c r="H3">
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>32</v>
-      </c>
-      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="O3" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H4">
         <v>51</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
-        <v>27</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>51</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" t="s">
-        <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N5" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H6">
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="K6" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
         <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>31</v>
       </c>
       <c r="H7">
         <v>51</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" t="s">
-        <v>27</v>
-      </c>
-      <c r="O7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>51</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>66</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" t="s">
-        <v>67</v>
-      </c>
-      <c r="M8" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" t="s">
-        <v>27</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H9">
         <v>51</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" t="s">
-        <v>51</v>
-      </c>
-      <c r="K9" t="s">
-        <v>33</v>
-      </c>
-      <c r="L9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H10">
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" t="s">
-        <v>75</v>
-      </c>
-      <c r="L10" t="s">
-        <v>76</v>
-      </c>
-      <c r="M10" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H11">
         <v>51</v>
       </c>
       <c r="I11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J11" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data/tickets_simple_10.xlsx
+++ b/data/tickets_simple_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteoise/Documents/Development/Projects/few-shot-classification-experiment/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8850B63E-D9D6-8749-89C5-522F7236F7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3A70AE6-A51C-9F4C-BB62-4F8440A518C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="780" windowWidth="30240" windowHeight="18880" xr2:uid="{37832037-8207-C04A-9214-B0842A5D6D68}"/>
   </bookViews>
